--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpha2-Tshr.xlsx
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Gpha2</t>
+  </si>
+  <si>
+    <t>Tshr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Gpha2</t>
-  </si>
-  <si>
-    <t>Tshr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H2">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7262925</v>
+        <v>0.299213</v>
       </c>
       <c r="N2">
-        <v>1.452585</v>
+        <v>0.598426</v>
       </c>
       <c r="O2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="P2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
       <c r="Q2">
-        <v>0.0496844594375</v>
+        <v>0.005643955081333333</v>
       </c>
       <c r="R2">
-        <v>0.298106756625</v>
+        <v>0.033863730488</v>
       </c>
       <c r="S2">
-        <v>0.2952325527432663</v>
+        <v>0.09740004925129409</v>
       </c>
       <c r="T2">
-        <v>0.2455349483544712</v>
+        <v>0.07136653219636822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H3">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>1.225084</v>
       </c>
       <c r="O3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="P3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
       <c r="Q3">
-        <v>0.02793531821111111</v>
+        <v>0.007702783710222223</v>
       </c>
       <c r="R3">
-        <v>0.2514178639</v>
+        <v>0.069325053392</v>
       </c>
       <c r="S3">
-        <v>0.1659958747772335</v>
+        <v>0.1329300998920193</v>
       </c>
       <c r="T3">
-        <v>0.2070797486342548</v>
+        <v>0.1460999300318762</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H4">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.1071516666666667</v>
+        <v>0.04598133333333334</v>
       </c>
       <c r="N4">
-        <v>0.321455</v>
+        <v>0.137944</v>
       </c>
       <c r="O4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="P4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
       <c r="Q4">
-        <v>0.007330066930555555</v>
+        <v>0.0008673305635555557</v>
       </c>
       <c r="R4">
-        <v>0.06597060237499999</v>
+        <v>0.007805975072</v>
       </c>
       <c r="S4">
-        <v>0.04355636342203115</v>
+        <v>0.01496787950826614</v>
       </c>
       <c r="T4">
-        <v>0.05433653577813797</v>
+        <v>0.01645079745414774</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H5">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7379140000000001</v>
+        <v>0.5315415</v>
       </c>
       <c r="N5">
-        <v>1.475828</v>
+        <v>1.063083</v>
       </c>
       <c r="O5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="P5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
       <c r="Q5">
-        <v>0.05047946688333334</v>
+        <v>0.010026290134</v>
       </c>
       <c r="R5">
-        <v>0.3028768013</v>
+        <v>0.060157740804</v>
       </c>
       <c r="S5">
-        <v>0.29995660691112</v>
+        <v>0.1730278038691726</v>
       </c>
       <c r="T5">
-        <v>0.2494637847424299</v>
+        <v>0.1267801652115913</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H6">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1998293333333333</v>
+        <v>1.667958333333333</v>
       </c>
       <c r="N6">
-        <v>0.599488</v>
+        <v>5.003875</v>
       </c>
       <c r="O6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="P6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
       <c r="Q6">
-        <v>0.01366999164444445</v>
+        <v>0.03146214205555555</v>
       </c>
       <c r="R6">
-        <v>0.1230299248</v>
+        <v>0.2831592785</v>
       </c>
       <c r="S6">
-        <v>0.08122915243236724</v>
+        <v>0.5429550982603464</v>
       </c>
       <c r="T6">
-        <v>0.1013333162046457</v>
+        <v>0.5967474780408973</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.06840833333333333</v>
+        <v>0.01886266666666667</v>
       </c>
       <c r="H7">
-        <v>0.205225</v>
+        <v>0.056588</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2805203333333333</v>
+        <v>0.118945</v>
       </c>
       <c r="N7">
-        <v>0.841561</v>
+        <v>0.356835</v>
       </c>
       <c r="O7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="P7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
       <c r="Q7">
-        <v>0.01918992846944444</v>
+        <v>0.002243619886666667</v>
       </c>
       <c r="R7">
-        <v>0.172709356225</v>
+        <v>0.02019257898</v>
       </c>
       <c r="S7">
-        <v>0.1140294497139816</v>
+        <v>0.0387190692189015</v>
       </c>
       <c r="T7">
-        <v>0.1422516662860605</v>
+        <v>0.04255509706511925</v>
       </c>
     </row>
   </sheetData>
